--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>画画</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>做饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电影</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,6 +138,32 @@
   </si>
   <si>
     <t>做自己喜欢的事不会累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听力：breakfast or launch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给导师的礼物改了地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、根管治疗第二步
+2、导师收到了礼物
+3、拿了快递，买了小书包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财4-51课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -232,11 +254,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -279,11 +338,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,18 +647,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="24" style="3" customWidth="1"/>
@@ -599,34 +667,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -641,96 +709,162 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="4">
+        <v>1017</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>1016</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>1015</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>1014</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="49.5">
+      <c r="A8" s="4">
+        <v>1013</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="33">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="66">
+      <c r="A10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="82.5">
-      <c r="A5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="49.5">
+      <c r="A11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="49.5">
-      <c r="A6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="9" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,27 +898,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>画画</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,30 +26,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10*7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第7-8天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10*11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10*9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10*8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一个人住真的会上瘾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +51,6 @@
   </si>
   <si>
     <t>理财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10*12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,10 +100,6 @@
   </si>
   <si>
     <t>学什么都好，只要生活是向前走的就可以了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,6 +136,79 @@
   </si>
   <si>
     <t>理财4-51课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要的都会有的，只是会慢一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1016五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java&amp;安卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买了路由和网卡，预计就是3年500块
+电影：触不可及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影：侏罗纪公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓：线性布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知否知否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒速五厘米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -339,6 +384,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -647,11 +695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E6"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -667,204 +715,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12" hidden="1" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
-        <v>1017</v>
+      <c r="A4" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>1016</v>
+      <c r="A5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>1015</v>
-      </c>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4">
-        <v>1014</v>
+    <row r="7" spans="1:7" ht="49.5">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="E7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="49.5">
-      <c r="A8" s="4">
-        <v>1013</v>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="33">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="66">
-      <c r="A10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="49.5">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="33">
+      <c r="A12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="66">
+      <c r="A13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="49.5">
+      <c r="A14" s="6">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="49.5">
-      <c r="A11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="5"/>
     </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6">
+        <v>109</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9">
+        <v>108</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9">
+        <v>107</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -874,10 +966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -888,37 +980,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="10" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -699,7 +699,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
